--- a/training/output/LRSADTLM/T/T0_T2.xlsx
+++ b/training/output/LRSADTLM/T/T0_T2.xlsx
@@ -450,799 +450,799 @@
         <v>0.8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.997069277763367</v>
+        <v>1.919041109085083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="B3" t="n">
-        <v>1.640744872093201</v>
+        <v>1.598357648849487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9725</v>
+        <v>0.8575</v>
       </c>
       <c r="B4" t="n">
-        <v>1.541861662864685</v>
+        <v>1.510282745361328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="B5" t="n">
-        <v>1.534140863418579</v>
+        <v>1.508946995735168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.965</v>
+        <v>0.85</v>
       </c>
       <c r="B6" t="n">
-        <v>1.504636468887329</v>
+        <v>1.465406937599182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.965</v>
+        <v>0.8525</v>
       </c>
       <c r="B7" t="n">
-        <v>1.447076754570007</v>
+        <v>1.433606338500977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.965</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>1.468416919708252</v>
+        <v>1.448488984107971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.965</v>
+        <v>0.8625</v>
       </c>
       <c r="B9" t="n">
-        <v>1.474334120750427</v>
+        <v>1.449021501541138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.965</v>
+        <v>0.8525</v>
       </c>
       <c r="B10" t="n">
-        <v>1.506355299949646</v>
+        <v>1.449065713882446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.985</v>
+        <v>0.8675</v>
       </c>
       <c r="B11" t="n">
-        <v>1.424950261116028</v>
+        <v>1.421218585968018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.98</v>
+        <v>0.8525</v>
       </c>
       <c r="B12" t="n">
-        <v>1.425463552474976</v>
+        <v>1.416745805740356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="B13" t="n">
-        <v>1.418147902488708</v>
+        <v>1.414709415435791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9825</v>
+        <v>0.8575</v>
       </c>
       <c r="B14" t="n">
-        <v>1.411281914710999</v>
+        <v>1.410090432167053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.985</v>
+        <v>0.8625</v>
       </c>
       <c r="B15" t="n">
-        <v>1.413932237625122</v>
+        <v>1.410902228355408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="B16" t="n">
-        <v>1.433779215812683</v>
+        <v>1.431388640403747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9775</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1.418591380119324</v>
+        <v>1.412704858779907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="B18" t="n">
-        <v>1.420462942123413</v>
+        <v>1.413613872528076</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="B19" t="n">
-        <v>1.420742425918579</v>
+        <v>1.413049101829529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9775</v>
+        <v>0.8475</v>
       </c>
       <c r="B20" t="n">
-        <v>1.408408370018005</v>
+        <v>1.410007615089417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.975</v>
+        <v>0.8475</v>
       </c>
       <c r="B21" t="n">
-        <v>1.451580214500427</v>
+        <v>1.413988513946533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9825</v>
+        <v>0.845</v>
       </c>
       <c r="B22" t="n">
-        <v>1.414285011291504</v>
+        <v>1.404695882797241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9875</v>
+        <v>0.855</v>
       </c>
       <c r="B23" t="n">
-        <v>1.459981436729431</v>
+        <v>1.435489859580994</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.985</v>
+        <v>0.8525</v>
       </c>
       <c r="B24" t="n">
-        <v>1.415511970520019</v>
+        <v>1.406475973129272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9625</v>
+        <v>0.8375</v>
       </c>
       <c r="B25" t="n">
-        <v>1.519653487205505</v>
+        <v>1.413997631072998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.975</v>
+        <v>0.855</v>
       </c>
       <c r="B26" t="n">
-        <v>1.426537928581238</v>
+        <v>1.403457884788513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9675</v>
+        <v>0.8625</v>
       </c>
       <c r="B27" t="n">
-        <v>1.463879590034485</v>
+        <v>1.407237071990967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.98</v>
+        <v>0.865</v>
       </c>
       <c r="B28" t="n">
-        <v>1.440752124786377</v>
+        <v>1.400659341812134</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.975</v>
+        <v>0.875</v>
       </c>
       <c r="B29" t="n">
-        <v>1.441130337715149</v>
+        <v>1.406700892448425</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.975</v>
+        <v>0.8675</v>
       </c>
       <c r="B30" t="n">
-        <v>1.42477819442749</v>
+        <v>1.404953274726868</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.975</v>
+        <v>0.8575</v>
       </c>
       <c r="B31" t="n">
-        <v>1.407076644897461</v>
+        <v>1.399856162071228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9775</v>
+        <v>0.86</v>
       </c>
       <c r="B32" t="n">
-        <v>1.421651706695557</v>
+        <v>1.400238633155823</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9775</v>
+        <v>0.86</v>
       </c>
       <c r="B33" t="n">
-        <v>1.439243187904358</v>
+        <v>1.39773889541626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="B34" t="n">
-        <v>1.413891167640686</v>
+        <v>1.400534992218017</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9825</v>
+        <v>0.86</v>
       </c>
       <c r="B35" t="n">
-        <v>1.398488545417786</v>
+        <v>1.395825815200806</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9725</v>
+        <v>0.8675</v>
       </c>
       <c r="B36" t="n">
-        <v>1.403231539726257</v>
+        <v>1.397936625480652</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9775</v>
+        <v>0.87</v>
       </c>
       <c r="B37" t="n">
-        <v>1.397624187469482</v>
+        <v>1.397033376693726</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9825</v>
+        <v>0.865</v>
       </c>
       <c r="B38" t="n">
-        <v>1.450606021881103</v>
+        <v>1.407515802383423</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9775</v>
+        <v>0.87</v>
       </c>
       <c r="B39" t="n">
-        <v>1.398607721328735</v>
+        <v>1.398659906387329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.98</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>1.438541564941406</v>
+        <v>1.415564684867859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9725</v>
+        <v>0.8675</v>
       </c>
       <c r="B41" t="n">
-        <v>1.44290741443634</v>
+        <v>1.399241337776184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.98</v>
+        <v>0.8625</v>
       </c>
       <c r="B42" t="n">
-        <v>1.394383382797241</v>
+        <v>1.392804260253906</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.99</v>
+        <v>0.8675</v>
       </c>
       <c r="B43" t="n">
-        <v>1.431087160110474</v>
+        <v>1.401341786384583</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9775</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.472688069343567</v>
+        <v>1.403689107894897</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.985</v>
+        <v>0.87</v>
       </c>
       <c r="B45" t="n">
-        <v>1.432277727127075</v>
+        <v>1.401967897415161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9875</v>
+        <v>0.865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.404362936019897</v>
+        <v>1.396860866546631</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9875</v>
+        <v>0.87</v>
       </c>
       <c r="B47" t="n">
-        <v>1.401078262329102</v>
+        <v>1.395664253234863</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9875</v>
+        <v>0.87</v>
       </c>
       <c r="B48" t="n">
-        <v>1.40674298286438</v>
+        <v>1.398182511329651</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9875</v>
+        <v>0.8675</v>
       </c>
       <c r="B49" t="n">
-        <v>1.403278088569641</v>
+        <v>1.39565450668335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.985</v>
+        <v>0.8675</v>
       </c>
       <c r="B50" t="n">
-        <v>1.402217540740967</v>
+        <v>1.395016694068909</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.985</v>
+        <v>0.8675</v>
       </c>
       <c r="B51" t="n">
-        <v>1.419917697906494</v>
+        <v>1.396643981933594</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9825</v>
+        <v>0.8675</v>
       </c>
       <c r="B52" t="n">
-        <v>1.431391725540161</v>
+        <v>1.395208163261414</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9825</v>
+        <v>0.865</v>
       </c>
       <c r="B53" t="n">
-        <v>1.458543620109558</v>
+        <v>1.398036975860596</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9875</v>
+        <v>0.865</v>
       </c>
       <c r="B54" t="n">
-        <v>1.414455366134644</v>
+        <v>1.392489805221558</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.975</v>
+        <v>0.87</v>
       </c>
       <c r="B55" t="n">
-        <v>1.428434710502624</v>
+        <v>1.392010192871094</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.99</v>
+        <v>0.8675</v>
       </c>
       <c r="B56" t="n">
-        <v>1.402404160499573</v>
+        <v>1.393559966087341</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9875</v>
+        <v>0.8675</v>
       </c>
       <c r="B57" t="n">
-        <v>1.39596631526947</v>
+        <v>1.393565130233765</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9875</v>
+        <v>0.8675</v>
       </c>
       <c r="B58" t="n">
-        <v>1.395499305725098</v>
+        <v>1.392355904579163</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.985</v>
+        <v>0.8675</v>
       </c>
       <c r="B59" t="n">
-        <v>1.39639760017395</v>
+        <v>1.393330907821655</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9825</v>
+        <v>0.885</v>
       </c>
       <c r="B60" t="n">
-        <v>1.414850873947143</v>
+        <v>1.395937833786011</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.985</v>
+        <v>0.8825</v>
       </c>
       <c r="B61" t="n">
-        <v>1.409131588935852</v>
+        <v>1.400177669525146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.98</v>
+        <v>0.8625</v>
       </c>
       <c r="B62" t="n">
-        <v>1.397091636657715</v>
+        <v>1.396175775527954</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.985</v>
+        <v>0.8475</v>
       </c>
       <c r="B63" t="n">
-        <v>1.394278697967529</v>
+        <v>1.39295928478241</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.985</v>
+        <v>0.8525</v>
       </c>
       <c r="B64" t="n">
-        <v>1.391497507095337</v>
+        <v>1.390949726104736</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.985</v>
+        <v>0.8525</v>
       </c>
       <c r="B65" t="n">
-        <v>1.404749183654785</v>
+        <v>1.392967457771301</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9875</v>
+        <v>0.85</v>
       </c>
       <c r="B66" t="n">
-        <v>1.39213574886322</v>
+        <v>1.39111927986145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.985</v>
+        <v>0.855</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39811270236969</v>
+        <v>1.391565184593201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392601685523987</v>
+        <v>1.392804536819458</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9925</v>
+        <v>0.8525</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390370454788208</v>
+        <v>1.390002427101135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="B70" t="n">
-        <v>1.391306581497192</v>
+        <v>1.390891127586365</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.99</v>
+        <v>0.8525</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390677714347839</v>
+        <v>1.390802073478699</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9875</v>
+        <v>0.855</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390359992980957</v>
+        <v>1.390720539093018</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.98</v>
+        <v>0.855</v>
       </c>
       <c r="B73" t="n">
-        <v>1.420091037750244</v>
+        <v>1.398682227134705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.99</v>
+        <v>0.8525</v>
       </c>
       <c r="B74" t="n">
-        <v>1.415448026657105</v>
+        <v>1.391288995742798</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.99</v>
+        <v>0.8575</v>
       </c>
       <c r="B75" t="n">
-        <v>1.420092730522156</v>
+        <v>1.392442293167114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="B76" t="n">
-        <v>1.404179539680481</v>
+        <v>1.390559530258179</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9875</v>
+        <v>0.855</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391229023933411</v>
+        <v>1.38954345703125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9875</v>
+        <v>0.8575</v>
       </c>
       <c r="B78" t="n">
-        <v>1.392439813613892</v>
+        <v>1.390688238143921</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.985</v>
+        <v>0.86</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39327184677124</v>
+        <v>1.390610227584839</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9875</v>
+        <v>0.86</v>
       </c>
       <c r="B80" t="n">
-        <v>1.394064869880676</v>
+        <v>1.391878337860107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9875</v>
+        <v>0.8575</v>
       </c>
       <c r="B81" t="n">
-        <v>1.393074517250061</v>
+        <v>1.391557388305664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9825</v>
+        <v>0.8575</v>
       </c>
       <c r="B82" t="n">
-        <v>1.392269968986511</v>
+        <v>1.390780487060547</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.985</v>
+        <v>0.86</v>
       </c>
       <c r="B83" t="n">
-        <v>1.407871322631836</v>
+        <v>1.39003427028656</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.98</v>
+        <v>0.8625</v>
       </c>
       <c r="B84" t="n">
-        <v>1.390013647079468</v>
+        <v>1.389263548851013</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9725</v>
+        <v>0.845</v>
       </c>
       <c r="B85" t="n">
-        <v>1.415947332382202</v>
+        <v>1.395393843650818</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.985</v>
+        <v>0.8425</v>
       </c>
       <c r="B86" t="n">
-        <v>1.40883104801178</v>
+        <v>1.391616368293762</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.985</v>
+        <v>0.84</v>
       </c>
       <c r="B87" t="n">
-        <v>1.394728784561157</v>
+        <v>1.391554760932922</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.98</v>
+        <v>0.8225</v>
       </c>
       <c r="B88" t="n">
-        <v>1.427595448493957</v>
+        <v>1.402028698921204</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9875</v>
+        <v>0.8325</v>
       </c>
       <c r="B89" t="n">
-        <v>1.394641418457031</v>
+        <v>1.391418151855469</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.985</v>
+        <v>0.8375</v>
       </c>
       <c r="B90" t="n">
-        <v>1.391031966209412</v>
+        <v>1.389923233985901</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.985</v>
+        <v>0.835</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392718925476074</v>
+        <v>1.39152979850769</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9875</v>
+        <v>0.84</v>
       </c>
       <c r="B92" t="n">
-        <v>1.390553369522095</v>
+        <v>1.389830951690674</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9825</v>
+        <v>0.8425</v>
       </c>
       <c r="B93" t="n">
-        <v>1.411068353652954</v>
+        <v>1.391271986961365</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.98</v>
+        <v>0.8375</v>
       </c>
       <c r="B94" t="n">
-        <v>1.435295004844666</v>
+        <v>1.391301574707031</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9625</v>
+        <v>0.8375</v>
       </c>
       <c r="B95" t="n">
-        <v>1.396186809539795</v>
+        <v>1.389272866249085</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.96</v>
+        <v>0.835</v>
       </c>
       <c r="B96" t="n">
-        <v>1.403603186607361</v>
+        <v>1.392696113586426</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.96</v>
+        <v>0.835</v>
       </c>
       <c r="B97" t="n">
-        <v>1.397144718170166</v>
+        <v>1.392422227859497</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.965</v>
+        <v>0.8475</v>
       </c>
       <c r="B98" t="n">
-        <v>1.406359004974365</v>
+        <v>1.393279485702515</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9725</v>
+        <v>0.8475</v>
       </c>
       <c r="B99" t="n">
-        <v>1.395447897911072</v>
+        <v>1.392288246154785</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9725</v>
+        <v>0.845</v>
       </c>
       <c r="B100" t="n">
-        <v>1.390974383354187</v>
+        <v>1.389358382225037</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.985</v>
+        <v>0.8425</v>
       </c>
       <c r="B101" t="n">
-        <v>1.398210115432739</v>
+        <v>1.390332975387573</v>
       </c>
     </row>
   </sheetData>

--- a/training/output/LRSADTLM/T/T0_T2.xlsx
+++ b/training/output/LRSADTLM/T/T0_T2.xlsx
@@ -447,474 +447,474 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8</v>
+        <v>0.8225</v>
       </c>
       <c r="B2" t="n">
-        <v>1.919041109085083</v>
+        <v>1.892512125968933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.85</v>
+        <v>0.915</v>
       </c>
       <c r="B3" t="n">
-        <v>1.598357648849487</v>
+        <v>1.622015328407288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8575</v>
+        <v>0.905</v>
       </c>
       <c r="B4" t="n">
-        <v>1.510282745361328</v>
+        <v>1.528424277305603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.84</v>
+        <v>0.8975</v>
       </c>
       <c r="B5" t="n">
-        <v>1.508946995735168</v>
+        <v>1.543238973617554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.85</v>
+        <v>0.9175</v>
       </c>
       <c r="B6" t="n">
-        <v>1.465406937599182</v>
+        <v>1.484118037223816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8525</v>
+        <v>0.9075</v>
       </c>
       <c r="B7" t="n">
-        <v>1.433606338500977</v>
+        <v>1.444450931549072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8725000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="B8" t="n">
-        <v>1.448488984107971</v>
+        <v>1.471502304077148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8625</v>
+        <v>0.925</v>
       </c>
       <c r="B9" t="n">
-        <v>1.449021501541138</v>
+        <v>1.456030631065369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8525</v>
+        <v>0.9125</v>
       </c>
       <c r="B10" t="n">
-        <v>1.449065713882446</v>
+        <v>1.484630861282349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8675</v>
+        <v>0.9275</v>
       </c>
       <c r="B11" t="n">
-        <v>1.421218585968018</v>
+        <v>1.429745244979858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8525</v>
+        <v>0.9175</v>
       </c>
       <c r="B12" t="n">
-        <v>1.416745805740356</v>
+        <v>1.42367636680603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.86</v>
+        <v>0.9175</v>
       </c>
       <c r="B13" t="n">
-        <v>1.414709415435791</v>
+        <v>1.421149735450745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8575</v>
+        <v>0.9125</v>
       </c>
       <c r="B14" t="n">
-        <v>1.410090432167053</v>
+        <v>1.41796190738678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8625</v>
+        <v>0.925</v>
       </c>
       <c r="B15" t="n">
-        <v>1.410902228355408</v>
+        <v>1.416962351799011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="B16" t="n">
-        <v>1.431388640403747</v>
+        <v>1.442606019973755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8774999999999999</v>
+        <v>0.9175</v>
       </c>
       <c r="B17" t="n">
-        <v>1.412704858779907</v>
+        <v>1.416874814033508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.85</v>
+        <v>0.9075</v>
       </c>
       <c r="B18" t="n">
-        <v>1.413613872528076</v>
+        <v>1.433202047348022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.83</v>
+        <v>0.9125</v>
       </c>
       <c r="B19" t="n">
-        <v>1.413049101829529</v>
+        <v>1.421990013122559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8475</v>
+        <v>0.8925</v>
       </c>
       <c r="B20" t="n">
-        <v>1.410007615089417</v>
+        <v>1.423343133926392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8475</v>
+        <v>0.885</v>
       </c>
       <c r="B21" t="n">
-        <v>1.413988513946533</v>
+        <v>1.418560333251953</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.845</v>
+        <v>0.8925</v>
       </c>
       <c r="B22" t="n">
-        <v>1.404695882797241</v>
+        <v>1.407288947105408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.855</v>
+        <v>0.91</v>
       </c>
       <c r="B23" t="n">
-        <v>1.435489859580994</v>
+        <v>1.434089975357056</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8525</v>
+        <v>0.8925</v>
       </c>
       <c r="B24" t="n">
-        <v>1.406475973129272</v>
+        <v>1.413662767410278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8375</v>
+        <v>0.8875</v>
       </c>
       <c r="B25" t="n">
-        <v>1.413997631072998</v>
+        <v>1.431106209754944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.855</v>
+        <v>0.8925</v>
       </c>
       <c r="B26" t="n">
-        <v>1.403457884788513</v>
+        <v>1.410756211280823</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8625</v>
+        <v>0.9175</v>
       </c>
       <c r="B27" t="n">
-        <v>1.407237071990967</v>
+        <v>1.418455352783203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.865</v>
+        <v>0.9075</v>
       </c>
       <c r="B28" t="n">
-        <v>1.400659341812134</v>
+        <v>1.403684816360474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="B29" t="n">
-        <v>1.406700892448425</v>
+        <v>1.419119091033936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8675</v>
+        <v>0.9375</v>
       </c>
       <c r="B30" t="n">
-        <v>1.404953274726868</v>
+        <v>1.410664868354797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8575</v>
+        <v>0.925</v>
       </c>
       <c r="B31" t="n">
-        <v>1.399856162071228</v>
+        <v>1.404711856842041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.86</v>
+        <v>0.8925</v>
       </c>
       <c r="B32" t="n">
-        <v>1.400238633155823</v>
+        <v>1.403907098770142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="B33" t="n">
-        <v>1.39773889541626</v>
+        <v>1.404351139068603</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.86</v>
+        <v>0.9125</v>
       </c>
       <c r="B34" t="n">
-        <v>1.400534992218017</v>
+        <v>1.402208318710327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="B35" t="n">
-        <v>1.395825815200806</v>
+        <v>1.398724865913391</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8675</v>
+        <v>0.925</v>
       </c>
       <c r="B36" t="n">
-        <v>1.397936625480652</v>
+        <v>1.40657039642334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.87</v>
+        <v>0.925</v>
       </c>
       <c r="B37" t="n">
-        <v>1.397033376693726</v>
+        <v>1.399553008079529</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.865</v>
+        <v>0.885</v>
       </c>
       <c r="B38" t="n">
-        <v>1.407515802383423</v>
+        <v>1.42247802734375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="B39" t="n">
-        <v>1.398659906387329</v>
+        <v>1.400509662628174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8725000000000001</v>
+        <v>0.915</v>
       </c>
       <c r="B40" t="n">
-        <v>1.415564684867859</v>
+        <v>1.417245535850525</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8675</v>
+        <v>0.9</v>
       </c>
       <c r="B41" t="n">
-        <v>1.399241337776184</v>
+        <v>1.404348497390747</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8625</v>
+        <v>0.8975</v>
       </c>
       <c r="B42" t="n">
-        <v>1.392804260253906</v>
+        <v>1.393118724822998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8675</v>
+        <v>0.8925</v>
       </c>
       <c r="B43" t="n">
-        <v>1.401341786384583</v>
+        <v>1.403767027854919</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8725000000000001</v>
+        <v>0.8975</v>
       </c>
       <c r="B44" t="n">
-        <v>1.403689107894897</v>
+        <v>1.403575968742371</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="B45" t="n">
-        <v>1.401967897415161</v>
+        <v>1.405847992897034</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.865</v>
+        <v>0.9075</v>
       </c>
       <c r="B46" t="n">
-        <v>1.396860866546631</v>
+        <v>1.398715028762817</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.87</v>
+        <v>0.9075</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395664253234863</v>
+        <v>1.39648889541626</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.87</v>
+        <v>0.9075</v>
       </c>
       <c r="B48" t="n">
-        <v>1.398182511329651</v>
+        <v>1.399233860969543</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8675</v>
+        <v>0.905</v>
       </c>
       <c r="B49" t="n">
-        <v>1.39565450668335</v>
+        <v>1.396965403556824</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8675</v>
+        <v>0.905</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395016694068909</v>
+        <v>1.395208201408386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8675</v>
+        <v>0.9175</v>
       </c>
       <c r="B51" t="n">
-        <v>1.396643981933594</v>
+        <v>1.397817854881287</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8675</v>
+        <v>0.9175</v>
       </c>
       <c r="B52" t="n">
-        <v>1.395208163261414</v>
+        <v>1.397373938560486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.865</v>
+        <v>0.925</v>
       </c>
       <c r="B53" t="n">
-        <v>1.398036975860596</v>
+        <v>1.396879887580872</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.865</v>
+        <v>0.8975</v>
       </c>
       <c r="B54" t="n">
-        <v>1.392489805221558</v>
+        <v>1.39718560218811</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.87</v>
+        <v>0.8825</v>
       </c>
       <c r="B55" t="n">
-        <v>1.392010192871094</v>
+        <v>1.393033137321472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8675</v>
+        <v>0.885</v>
       </c>
       <c r="B56" t="n">
-        <v>1.393559966087341</v>
+        <v>1.393821167945862</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8675</v>
+        <v>0.885</v>
       </c>
       <c r="B57" t="n">
-        <v>1.393565130233765</v>
+        <v>1.393894834518433</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8675</v>
+        <v>0.885</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392355904579163</v>
+        <v>1.392565259933472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8675</v>
+        <v>0.8875</v>
       </c>
       <c r="B59" t="n">
-        <v>1.393330907821655</v>
+        <v>1.393790769577026</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.885</v>
+        <v>0.89</v>
       </c>
       <c r="B60" t="n">
-        <v>1.395937833786011</v>
+        <v>1.416667995452881</v>
       </c>
     </row>
     <row r="61">
@@ -922,327 +922,327 @@
         <v>0.8825</v>
       </c>
       <c r="B61" t="n">
-        <v>1.400177669525146</v>
+        <v>1.407524518966675</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8625</v>
+        <v>0.88</v>
       </c>
       <c r="B62" t="n">
-        <v>1.396175775527954</v>
+        <v>1.395096244812012</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8475</v>
+        <v>0.87</v>
       </c>
       <c r="B63" t="n">
-        <v>1.39295928478241</v>
+        <v>1.393171815872192</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8525</v>
+        <v>0.875</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390949726104736</v>
+        <v>1.390965676307678</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8525</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>1.392967457771301</v>
+        <v>1.393489027023315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.85</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>1.39111927986145</v>
+        <v>1.391171383857727</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.855</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>1.391565184593201</v>
+        <v>1.391579780578613</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.86</v>
+        <v>0.8875</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392804536819458</v>
+        <v>1.393106570243835</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8525</v>
+        <v>0.8925</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390002427101135</v>
+        <v>1.390168881416321</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.85</v>
+        <v>0.8925</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390891127586365</v>
+        <v>1.391265530586243</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8525</v>
+        <v>0.895</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390802073478699</v>
+        <v>1.390846538543701</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.855</v>
+        <v>0.8925</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390720539093018</v>
+        <v>1.391453051567078</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.855</v>
+        <v>0.895</v>
       </c>
       <c r="B73" t="n">
-        <v>1.398682227134705</v>
+        <v>1.404607439041138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8525</v>
+        <v>0.915</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391288995742798</v>
+        <v>1.391876120567322</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8575</v>
+        <v>0.9125</v>
       </c>
       <c r="B75" t="n">
-        <v>1.392442293167114</v>
+        <v>1.392076258659363</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.86</v>
+        <v>0.9025</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390559530258179</v>
+        <v>1.390594801902771</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.855</v>
+        <v>0.9</v>
       </c>
       <c r="B77" t="n">
-        <v>1.38954345703125</v>
+        <v>1.389839191436768</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8575</v>
+        <v>0.9</v>
       </c>
       <c r="B78" t="n">
-        <v>1.390688238143921</v>
+        <v>1.390743589401245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="B79" t="n">
-        <v>1.390610227584839</v>
+        <v>1.39058078289032</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="B80" t="n">
-        <v>1.391878337860107</v>
+        <v>1.391739869117737</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8575</v>
+        <v>0.9</v>
       </c>
       <c r="B81" t="n">
-        <v>1.391557388305664</v>
+        <v>1.391743774414063</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8575</v>
+        <v>0.9</v>
       </c>
       <c r="B82" t="n">
-        <v>1.390780487060547</v>
+        <v>1.390746445655823</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.86</v>
+        <v>0.9025</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39003427028656</v>
+        <v>1.390412106513977</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8625</v>
+        <v>0.9075</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389263548851013</v>
+        <v>1.389361319541931</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.845</v>
+        <v>0.885</v>
       </c>
       <c r="B85" t="n">
-        <v>1.395393843650818</v>
+        <v>1.394236159324646</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8425</v>
+        <v>0.88</v>
       </c>
       <c r="B86" t="n">
-        <v>1.391616368293762</v>
+        <v>1.392332186698914</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.84</v>
+        <v>0.8825</v>
       </c>
       <c r="B87" t="n">
-        <v>1.391554760932922</v>
+        <v>1.392934718132019</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8225</v>
+        <v>0.85</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402028698921204</v>
+        <v>1.410422763824463</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8325</v>
+        <v>0.8575</v>
       </c>
       <c r="B89" t="n">
-        <v>1.391418151855469</v>
+        <v>1.392970132827759</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8375</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>1.389923233985901</v>
+        <v>1.390493755340576</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39152979850769</v>
+        <v>1.391913089752197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.84</v>
+        <v>0.8825</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389830951690674</v>
+        <v>1.390094399452209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8425</v>
+        <v>0.89</v>
       </c>
       <c r="B93" t="n">
-        <v>1.391271986961365</v>
+        <v>1.392760066986084</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8375</v>
+        <v>0.855</v>
       </c>
       <c r="B94" t="n">
-        <v>1.391301574707031</v>
+        <v>1.399877920150757</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8375</v>
+        <v>0.895</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389272866249085</v>
+        <v>1.390234413146973</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.835</v>
+        <v>0.89</v>
       </c>
       <c r="B96" t="n">
-        <v>1.392696113586426</v>
+        <v>1.394533467292786</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.835</v>
+        <v>0.885</v>
       </c>
       <c r="B97" t="n">
-        <v>1.392422227859497</v>
+        <v>1.392614555358887</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8475</v>
+        <v>0.885</v>
       </c>
       <c r="B98" t="n">
-        <v>1.393279485702515</v>
+        <v>1.393845767974853</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8475</v>
+        <v>0.89</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392288246154785</v>
+        <v>1.392201261520386</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.845</v>
+        <v>0.8875</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389358382225037</v>
+        <v>1.389919819831848</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8425</v>
+        <v>0.885</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390332975387573</v>
+        <v>1.391047792434692</v>
       </c>
     </row>
   </sheetData>
